--- a/data/trans_camb/P19C06-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.155580390353021</v>
+        <v>-2.113664007450912</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.737937421461925</v>
+        <v>-1.767355610784242</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.486654474448309</v>
+        <v>-1.567633857729412</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3892213201779472</v>
+        <v>-0.4445576507290656</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.2768830395630171</v>
+        <v>-0.309148577461086</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.3478918863285684</v>
+        <v>-0.2429746965932153</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.827843005889377</v>
+        <v>-0.8579213817699329</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.6423255087076014</v>
+        <v>-0.6511789101256172</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.6112283810052274</v>
+        <v>-0.5255581670849819</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.01346770934324405</v>
+        <v>0.06621997547233621</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8164864125059395</v>
+        <v>0.7898281020901782</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.635404948132667</v>
+        <v>1.606307199238633</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.356789917589575</v>
+        <v>1.273391747572248</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.018922024528365</v>
+        <v>2.06644617175835</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.450393441887764</v>
+        <v>1.443534048808849</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5240952794131085</v>
+        <v>0.4845397044460273</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.11470793303629</v>
+        <v>1.128777833225461</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.000948100596873</v>
+        <v>1.117716526281209</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8819593155724005</v>
+        <v>-0.8931769318306324</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8166342225962159</v>
+        <v>-0.8303542773933921</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7498031935827443</v>
+        <v>-0.7388961088939257</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.370130088446138</v>
+        <v>-0.3864014886937914</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3474992105656378</v>
+        <v>-0.3080511720940138</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3702302610308829</v>
+        <v>-0.2328678491594003</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5470778351255892</v>
+        <v>-0.5632950987417966</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4471789987064043</v>
+        <v>-0.4295311828714611</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4367205859097561</v>
+        <v>-0.3808160558257374</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2744344838412078</v>
+        <v>0.2067812152152114</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.05388949289965</v>
+        <v>1.019403058502372</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.876747850132493</v>
+        <v>1.827002731190776</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.45587653981889</v>
+        <v>3.065939251053633</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.945609985564635</v>
+        <v>3.959180892649574</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.799768032721288</v>
+        <v>3.122593581542533</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7023702958868777</v>
+        <v>0.5915619788581012</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.361408416874899</v>
+        <v>1.430885474110899</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.127855808853004</v>
+        <v>1.41007185388809</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.551825027296011</v>
+        <v>-0.5804289111142908</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3692513479941565</v>
+        <v>-0.2953410990435053</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9283292406465523</v>
+        <v>-0.8871285855689262</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4297066551269487</v>
+        <v>-0.3737087678169825</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8103868298246796</v>
+        <v>-0.7700580832647969</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.9620711967445239</v>
+        <v>-1.056624706582713</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2554500390602418</v>
+        <v>-0.2815942082339196</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.3540632609393143</v>
+        <v>-0.2820657426945428</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.7438931292568732</v>
+        <v>-0.7317142640069779</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8583258659886061</v>
+        <v>0.9322476594957672</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.277491278404348</v>
+        <v>1.291480258562111</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3596688426802079</v>
+        <v>0.3380247179452429</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.279732478226115</v>
+        <v>1.287999345158054</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6946826285095811</v>
+        <v>0.8108940357513889</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3089119800259398</v>
+        <v>0.3114501219921759</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8513505390173361</v>
+        <v>0.859943635408578</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8302361857031947</v>
+        <v>0.7846716299059648</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1730480277054095</v>
+        <v>0.215380023933277</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4913963929145023</v>
+        <v>-0.4763293262331307</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2906235040067941</v>
+        <v>-0.2745721238753094</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.716020071288261</v>
+        <v>-0.7061907939338309</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3102902816590911</v>
+        <v>-0.2591535513765595</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.515949444057696</v>
+        <v>-0.4973191042938799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.598885773734542</v>
+        <v>-0.634230198302552</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2237553197097218</v>
+        <v>-0.2289056318695779</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2695123409296379</v>
+        <v>-0.2281234272979942</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5507719451813911</v>
+        <v>-0.5413428863972712</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.599670815692714</v>
+        <v>1.829195950968157</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.333390339538349</v>
+        <v>2.45914045598419</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7049512585978362</v>
+        <v>0.6597820824405899</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.622929933853682</v>
+        <v>1.929634918295826</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8907324161020204</v>
+        <v>1.165930384284583</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5446114149777138</v>
+        <v>0.4384751407507505</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.092653781307132</v>
+        <v>1.16814137508806</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.132715308224838</v>
+        <v>1.110342690963602</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2321228167976683</v>
+        <v>0.2862339828009423</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-0.1453652008794604</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.3085853967717341</v>
+        <v>-0.3085853967717345</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.02728815091750884</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.12879111457034</v>
+        <v>-1.139306930491022</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.518323995839136</v>
+        <v>-1.408079927777931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.772353454307855</v>
+        <v>-1.87914262624715</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.097743890737728</v>
+        <v>-1.934759751217977</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.845620344765024</v>
+        <v>-1.772970382036886</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.053439578635674</v>
+        <v>-1.893476276884935</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.248862472045617</v>
+        <v>-1.060564246832547</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.166205544758269</v>
+        <v>-1.169952480145436</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.414607999501511</v>
+        <v>-1.446905200588491</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.979695932971954</v>
+        <v>1.923712181423176</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9422939464477361</v>
+        <v>1.085150024107916</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.567035487040229</v>
+        <v>0.5451689270021854</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.554611881311007</v>
+        <v>1.434516996306345</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.53599930781918</v>
+        <v>1.411051393501846</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.069714227227876</v>
+        <v>1.007137401676961</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.156166327656796</v>
+        <v>1.111930917039542</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9088448915933862</v>
+        <v>0.976334831573588</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4990604190807361</v>
+        <v>0.4573649482099555</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.08385414435924811</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.178007970625032</v>
+        <v>-0.1780079706250322</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.02029271086084446</v>
@@ -1208,31 +1208,29 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8471046188355462</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8045794246538711</v>
+      </c>
+      <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.9211310519792861</v>
+        <v>-0.9467070141128672</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7719855107858231</v>
+        <v>-0.7544039060094418</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7217937737214133</v>
+        <v>-0.7173951911924088</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6840500768244031</v>
+        <v>-0.6796688143116154</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6452461300564215</v>
+        <v>-0.5822926530677783</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6311620093473184</v>
+        <v>-0.6310425848679936</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6479223695875341</v>
+        <v>-0.6434611698409178</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1241,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>6.93682410463414</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>2.806197229941367</v>
-      </c>
+        <v>6.134159617825656</v>
+      </c>
+      <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>2.281813591422649</v>
+        <v>1.985338699184783</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.141074214060267</v>
+        <v>1.687550642208868</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.366526549176715</v>
+        <v>1.62493495257572</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.595705550584609</v>
+        <v>1.370748952249678</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.412611235236998</v>
+        <v>1.323223097282342</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.318148402758911</v>
+        <v>1.282670924353589</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7757716229874938</v>
+        <v>0.6868361983728543</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1284,7 @@
         <v>0.09376413999187694</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.3262271037782537</v>
+        <v>-0.3262271037782535</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.3073845876077745</v>
@@ -1297,7 +1293,7 @@
         <v>0.2098538578445138</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.03340655105502823</v>
+        <v>-0.03340655105502841</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.09898934224738826</v>
@@ -1306,7 +1302,7 @@
         <v>0.1536405850267205</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.1752857180732061</v>
+        <v>-0.1752857180732065</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.7525586818251192</v>
+        <v>-0.7278728137556082</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.5201272453002599</v>
+        <v>-0.5289331207722874</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9110250143639084</v>
+        <v>-0.8422267431374402</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3059034855949282</v>
+        <v>-0.3289291503988451</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.3473696974980267</v>
+        <v>-0.4096269633491675</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.5594169915041232</v>
+        <v>-0.5176917427532869</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.3713725186176033</v>
+        <v>-0.312123854373387</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.2790464761335181</v>
+        <v>-0.2853437376053502</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.553963879833305</v>
+        <v>-0.5681881910059579</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3808134836155926</v>
+        <v>0.3826053965084608</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7487497469237846</v>
+        <v>0.7237863240931186</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1710798158993917</v>
+        <v>0.1647336283794342</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9351759186219077</v>
+        <v>0.8721410780997008</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8233937477351324</v>
+        <v>0.7436078119447871</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4531871302967732</v>
+        <v>0.4198068846133206</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4672221553533016</v>
+        <v>0.5392588426387129</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5863830811785073</v>
+        <v>0.5692564787586583</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2061573310007427</v>
+        <v>0.1797924891746003</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1389,7 @@
         <v>0.08544778521013208</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.297292584305499</v>
+        <v>-0.2972925843054989</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2719032121759313</v>
@@ -1402,7 +1398,7 @@
         <v>0.1856304458187199</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.02955043585715447</v>
+        <v>-0.02955043585715463</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.08879376262130285</v>
@@ -1411,7 +1407,7 @@
         <v>0.1378161055133252</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1572318604016942</v>
+        <v>-0.1572318604016945</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1418,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5171693233344595</v>
+        <v>-0.5001283436476091</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3783738953552623</v>
+        <v>-0.3894056698728065</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6214685590276118</v>
+        <v>-0.5880835945329105</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2124394231613408</v>
+        <v>-0.2369065828516904</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2742858009381504</v>
+        <v>-0.2973769006937104</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3755761745250376</v>
+        <v>-0.3563454687492985</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2767439971255527</v>
+        <v>-0.2486986051046682</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2331585032626026</v>
+        <v>-0.222797023920542</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4097647663608159</v>
+        <v>-0.4189240330143842</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1453,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5007109710266634</v>
+        <v>0.447817156400634</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9333228652599357</v>
+        <v>0.8882293929461292</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2882350699198487</v>
+        <v>0.2481465843502282</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.130938827399238</v>
+        <v>0.9878359749158542</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9251896407048955</v>
+        <v>0.8903407787146517</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5278643920226926</v>
+        <v>0.5075783148119294</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5001965423635022</v>
+        <v>0.5675341316021562</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6126675526795095</v>
+        <v>0.639633901445037</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2379134084555621</v>
+        <v>0.1974022679051712</v>
       </c>
     </row>
     <row r="28">
